--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_7_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_7_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.247093539546995e-10</v>
+        <v>5.871149605374271e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.247093539546995e-10</v>
+        <v>5.871149605374271e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>58.91908130947311</v>
+        <v>44.39729629181707</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[41.750457230097396, 76.08770538884882]</t>
+          <t>[27.591528885605015, 61.203063698029126]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.37643112463337e-08</v>
+        <v>3.139109162830778e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37643112463337e-08</v>
+        <v>3.139109162830778e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86797401024258</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.5409213215805808, 2.19502669890458]</t>
+          <t>[0.9371317425122703, 1.8176582119868891]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>1.113625549553632e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>1.113625549553632e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>54.58977201495745</v>
+        <v>52.51528898667804</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.81291990915595, 64.36662412075896]</t>
+          <t>[42.338380291502446, 62.69219768185364]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>1.532107773982716e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>1.532107773982716e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>17.97513513513552</v>
+        <v>19.80840840840882</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.64364364364401</v>
+        <v>18.0307307307311</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.30662662662704</v>
+        <v>21.58608608608654</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.293797101149408e-06</v>
+        <v>2.6469689312969e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.293797101149408e-06</v>
+        <v>2.6469689312969e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.27779616052927</v>
+        <v>40.41935850221949</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.009182072299765, 76.54641024875878]</t>
+          <t>[19.538696347988065, 61.30002065645091]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.310923480270844e-05</v>
+        <v>0.0003191457541142917</v>
       </c>
       <c r="O3" t="n">
-        <v>3.310923480270844e-05</v>
+        <v>0.0003191457541142917</v>
       </c>
       <c r="P3" t="n">
-        <v>1.201289683354655</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 1.6792897667837314]</t>
+          <t>[0.5220264069028095, 1.5535002711445012]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.487123534710705e-06</v>
+        <v>0.0001978673728328939</v>
       </c>
       <c r="S3" t="n">
-        <v>7.487123534710705e-06</v>
+        <v>0.0001978673728328939</v>
       </c>
       <c r="T3" t="n">
-        <v>65.20203208714805</v>
+        <v>57.73972927906161</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.24353887532135, 78.16052529897476]</t>
+          <t>[46.60717676366141, 68.8722817944618]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.419486915845482e-13</v>
+        <v>1.301181384860683e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.419486915845482e-13</v>
+        <v>1.301181384860683e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>20.68932932932979</v>
+        <v>21.1797597597602</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.74330330330372</v>
+        <v>19.09733733733774</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.63535535535585</v>
+        <v>23.26218218218266</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.563420181567189e-06</v>
+        <v>5.554633876192483e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>2.563420181567189e-06</v>
+        <v>5.554633876192483e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.60352171969627</v>
+        <v>48.64246272076683</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.313632357553416, 73.89341108183912]</t>
+          <t>[28.370373870296508, 68.91455157123715]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.096775113923925e-05</v>
+        <v>1.60176490104913e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>7.096775113923925e-05</v>
+        <v>1.60176490104913e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7736053981812701</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.2012896833546547]</t>
+          <t>[0.34592111300788453, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0006939439101540934</v>
+        <v>0.0005106187349821489</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0006939439101540934</v>
+        <v>0.0005106187349821489</v>
       </c>
       <c r="T4" t="n">
-        <v>66.44973936744546</v>
+        <v>54.01426003601598</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[54.41799032789342, 78.4814884069975]</t>
+          <t>[43.26609382030155, 64.76242625173042]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>3.554934124849751e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>3.554934124849751e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>22.430510510511</v>
+        <v>22.34794794794841</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.68932932932979</v>
+        <v>20.72264264264307</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.17169169169222</v>
+        <v>23.97325325325375</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.868707576515362e-10</v>
+        <v>1.912057046027371e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>3.868707576515362e-10</v>
+        <v>1.912057046027371e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>59.27217220312298</v>
+        <v>49.25107858507421</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.77553649704171, 77.76880790920426]</t>
+          <t>[32.89766583970413, 65.60449133044429]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.596051371765554e-08</v>
+        <v>2.49320043277379e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>6.596051371765554e-08</v>
+        <v>2.49320043277379e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5094474573388847</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.18239476867688342, 0.8365001460008861]</t>
+          <t>[-0.044026323473730145, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.00300437383607588</v>
+        <v>0.08332996393067682</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00300437383607588</v>
+        <v>0.08332996393067682</v>
       </c>
       <c r="T5" t="n">
-        <v>61.54536224651774</v>
+        <v>55.12351260380513</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.93916692751745, 71.15155756551803]</t>
+          <t>[45.864532043176496, 64.38249316443377]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>23.50594594594646</v>
+        <v>24.07483483483533</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.17445445445494</v>
+        <v>22.60190190190237</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.83743743743799</v>
+        <v>25.5477677677683</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.883609871995318e-07</v>
+        <v>2.926720643614544e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>2.883609871995318e-07</v>
+        <v>2.926720643614544e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.66399363328854</v>
+        <v>58.58175429540787</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.78020380631668, 72.5477834602604]</t>
+          <t>[42.03783567156468, 75.12567291925106]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.82903845846738e-07</v>
+        <v>6.49720566237022e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>1.82903845846738e-07</v>
+        <v>6.49720566237022e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01886842434588498</v>
+        <v>0.05660527303765406</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.3647895373537695, 0.4025263860455395]</t>
+          <t>[-0.25786846606042335, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9215351327391565</v>
+        <v>0.7186467968442951</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9215351327391565</v>
+        <v>0.7186467968442951</v>
       </c>
       <c r="T6" t="n">
-        <v>65.80720794332321</v>
+        <v>53.17165459019312</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[54.277486781840594, 77.33692910480582]</t>
+          <t>[42.92297534828192, 63.42033383210432]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.287858708565182e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.287858708565182e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>25.50318318318374</v>
+        <v>25.14144144144196</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.94124124124176</v>
+        <v>23.87167167167217</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.06512512512572</v>
+        <v>26.41121121121176</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.834334181389124e-09</v>
+        <v>1.029661625961964e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>7.834334181389124e-09</v>
+        <v>1.029661625961964e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>55.4408719162862</v>
+        <v>57.18603574441786</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.87049933597682, 73.01124449659558]</t>
+          <t>[36.37078608417691, 78.0012854046588]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.257105015869627e-08</v>
+        <v>1.530162107910016e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>9.257105015869627e-08</v>
+        <v>1.530162107910016e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5283158816847697, 0.17610529389492324]</t>
+          <t>[-0.779894872963232, 0.02515789912784694]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.319294513614905</v>
+        <v>0.06545332432287432</v>
       </c>
       <c r="S7" t="n">
-        <v>0.319294513614905</v>
+        <v>0.06545332432287432</v>
       </c>
       <c r="T7" t="n">
-        <v>54.37554935299978</v>
+        <v>60.7816870303252</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.230672265429774, 64.52042644056978]</t>
+          <t>[49.01323117999188, 72.55014288065853]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.485301019485632e-14</v>
+        <v>1.48991929904696e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>4.485301019485632e-14</v>
+        <v>1.48991929904696e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7169569569569738</v>
+        <v>1.523723723723755</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.7169569569569705</v>
+        <v>-0.1015815815815857</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.150870870870918</v>
+        <v>3.149029029029096</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.382270100248945e-09</v>
+        <v>1.686988083227092e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>8.382270100248945e-09</v>
+        <v>1.686988083227092e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.49236767854013</v>
+        <v>43.13366381181657</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[39.2763012168146, 85.70843414026565]</t>
+          <t>[23.248006637670265, 63.01932098596287]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.23472374916156e-06</v>
+        <v>7.267843498759419e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>2.23472374916156e-06</v>
+        <v>7.267843498759419e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8805264694746171</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2453160068283875, -0.5157369321208467]</t>
+          <t>[-1.2453160068283866, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.456160149793106e-05</v>
+        <v>0.0006158372908429133</v>
       </c>
       <c r="S8" t="n">
-        <v>1.456160149793106e-05</v>
+        <v>0.0006158372908429133</v>
       </c>
       <c r="T8" t="n">
-        <v>65.82042715829701</v>
+        <v>42.73246868873241</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.88312325373063, 77.75773106286339]</t>
+          <t>[32.3464544816149, 53.11848289584992]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.754152378907747e-14</v>
+        <v>1.322948417481484e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.754152378907747e-14</v>
+        <v>1.322948417481484e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>3.559559559559634</v>
+        <v>3.265985985986056</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.084884884884926</v>
+        <v>1.479899899899931</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.034234234234343</v>
+        <v>5.052072072072181</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.781532309510283e-09</v>
+        <v>1.017038342432386e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>3.781532309510283e-09</v>
+        <v>1.017038342432386e-09</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.097132369733</v>
+        <v>59.30855733594404</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.53999755698567, 73.65426718248034]</t>
+          <t>[41.10025647031915, 77.51685820156892]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.036327187570635e-08</v>
+        <v>4.584112445193966e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>7.036327187570635e-08</v>
+        <v>4.584112445193966e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.295631805084079</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6478423928739252, -0.9434212172942322]</t>
+          <t>[-1.6604213424378482, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.531207909939326e-09</v>
+        <v>1.983203157251978e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>2.531207909939326e-09</v>
+        <v>1.983203157251978e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>55.70318339096427</v>
+        <v>56.28042450220811</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.19977180407781, 66.20659497785073]</t>
+          <t>[45.698512454139184, 66.86233655027704]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>5.773159728050814e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>5.773159728050814e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>5.237637637637746</v>
+        <v>5.30722722722734</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.813813813813894</v>
+        <v>3.878358358358442</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.661461461461599</v>
+        <v>6.736096096096238</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.513863674286526e-06</v>
+        <v>4.200755965300118e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>8.513863674286526e-06</v>
+        <v>4.200755965300118e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.38773344570551</v>
+        <v>64.69030986093142</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[26.772697167943775, 64.00276972346725]</t>
+          <t>[46.27458515324497, 83.10603456861787]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.237116154606532e-05</v>
+        <v>7.886195696471532e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>1.237116154606532e-05</v>
+        <v>7.886195696471532e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.597526594618233</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.11326352673908, -1.0817896624973864]</t>
+          <t>[-1.9748950815359265, -1.2704739059562318]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.379214795704797e-07</v>
+        <v>5.133227176656874e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.379214795704797e-07</v>
+        <v>5.133227176656874e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>55.91150213646488</v>
+        <v>74.04764363696621</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.905528721438216, 67.91747555149153]</t>
+          <t>[61.92302939603678, 86.17225787789565]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.717914864864724e-12</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>3.717914864864724e-12</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>6.458058058058192</v>
+        <v>6.583003003003142</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.373173173173265</v>
+        <v>5.15413413413424</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.542942942943121</v>
+        <v>8.011871871872044</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.975572455099496e-09</v>
+        <v>0.0002893302362854122</v>
       </c>
       <c r="I11" t="n">
-        <v>2.975572455099496e-09</v>
+        <v>0.0002893302362854122</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>66.50843059645256</v>
+        <v>39.54095147450269</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[43.855746767184385, 89.16111442572073]</t>
+          <t>[16.355001109789242, 62.72690183921614]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.197034928488108e-07</v>
+        <v>0.001284811832241939</v>
       </c>
       <c r="O11" t="n">
-        <v>4.197034928488108e-07</v>
+        <v>0.001284811832241939</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.037789829355541</v>
+        <v>-1.798789787641002</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, -1.6855792415656934]</t>
+          <t>[-2.4654741145289267, -1.132105460753078]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.140280573659226e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.140280573659226e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>65.21576568462659</v>
+        <v>53.06103447520897</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.17646060218438, 77.2550707670688]</t>
+          <t>[40.10469916435986, 66.01736978605808]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.153033389935445e-14</v>
+        <v>1.503084323672965e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>3.153033389935445e-14</v>
+        <v>1.503084323672965e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>8.237837837838008</v>
+        <v>7.297437437437594</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.814014014014151</v>
+        <v>4.59279279279289</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.661661661661864</v>
+        <v>10.0020820820823</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.367056550767188e-10</v>
+        <v>4.338682191296073e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.367056550767188e-10</v>
+        <v>4.338682191296073e-08</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>61.57073642445152</v>
+        <v>53.79532184428711</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[41.98379421707038, 81.15767863183265]</t>
+          <t>[33.223361861880676, 74.36728182669354]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.004935774595594e-07</v>
+        <v>3.765006227007817e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>1.004935774595594e-07</v>
+        <v>3.765006227007817e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.31452671976185</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.6290004588599265, -2.0000529806637726]</t>
+          <t>[-2.742211004935235, -1.987474031099849]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T12" t="n">
-        <v>55.62531653696224</v>
+        <v>64.1715450724639</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.63739868325082, 65.61323439067365]</t>
+          <t>[53.56496726203143, 74.77812288289637]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>9.356556556556754</v>
+        <v>9.59383383383404</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.085285285285458</v>
+        <v>8.062902902903076</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.62782782782805</v>
+        <v>11.124764764765</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.178277362460904e-09</v>
+        <v>3.978928297954099e-12</v>
       </c>
       <c r="I13" t="n">
-        <v>5.178277362460904e-09</v>
+        <v>3.978928297954099e-12</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>62.26695379446495</v>
+        <v>66.98311993614496</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[40.81626289060622, 83.71764469832368]</t>
+          <t>[50.28489231118212, 83.6813475611078]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.273423020479839e-07</v>
+        <v>2.642912555472776e-10</v>
       </c>
       <c r="O13" t="n">
-        <v>5.273423020479839e-07</v>
+        <v>2.642912555472776e-10</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.578684660604234</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.930895248394081, -2.226474072814388]</t>
+          <t>[-3.0566847440333125, -2.503210963220696]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,27 +1569,27 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.33320389497166</v>
+        <v>58.93211062015256</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[52.15163927692535, 74.51476851301797]</t>
+          <t>[49.65943072014146, 68.20479052016366]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>10.42442442442464</v>
+        <v>11.2778578578581</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.000600600600789</v>
+        <v>10.15517517517539</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.84824824824849</v>
+        <v>12.40054054054081</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.558958600573646e-10</v>
+        <v>1.494009693736587e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>2.558958600573646e-10</v>
+        <v>1.494009693736587e-09</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>69.38613088048973</v>
+        <v>61.01472230287891</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[51.60260807118178, 87.16965368979768]</t>
+          <t>[43.288461592940564, 78.74098301281725]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.543827619192143e-10</v>
+        <v>1.282549222381135e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>5.543827619192143e-10</v>
+        <v>1.282549222381135e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.031526844905466</v>
+        <v>-2.943474197958005</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.320842684875696, -2.742211004935235]</t>
+          <t>[-3.257947937056083, -2.6290004588599265]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>57.31315043724989</v>
+        <v>54.08844794733661</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.234253550947116, 68.39204732355266]</t>
+          <t>[43.73042204410327, 64.44647385056996]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.414424133372449e-13</v>
+        <v>1.045830089196897e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.414424133372449e-13</v>
+        <v>1.045830089196897e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>12.25505505505531</v>
+        <v>11.94126126126152</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.08548548548572</v>
+        <v>10.66548548548571</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.4246246246249</v>
+        <v>13.21703703703733</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_7_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_7_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.871149605374271e-07</v>
+        <v>8.975143170553146e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>5.871149605374271e-07</v>
+        <v>8.975143170553146e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.39729629181707</v>
+        <v>40.85751088109725</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[27.591528885605015, 61.203063698029126]</t>
+          <t>[24.133409974385728, 57.58161178780877]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.139109162830778e-06</v>
+        <v>1.198057244122808e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>3.139109162830778e-06</v>
+        <v>1.198057244122808e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.37739497724958</v>
+        <v>1.578658170272349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9371317425122703, 1.8176582119868891]</t>
+          <t>[1.0377633390236563, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.113625549553632e-07</v>
+        <v>4.730485352322233e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>1.113625549553632e-07</v>
+        <v>4.730485352322233e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>52.51528898667804</v>
+        <v>52.50226895768501</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.338380291502446, 62.69219768185364]</t>
+          <t>[41.617128235908, 63.387409679462024]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.532107773982716e-13</v>
+        <v>1.277866701343555e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.532107773982716e-13</v>
+        <v>1.277866701343555e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.80840840840882</v>
+        <v>19.20540540540583</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.0307307307311</v>
+        <v>16.99729729729767</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.58608608608654</v>
+        <v>21.41351351351399</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6469689312969e-05</v>
+        <v>1.998490883892146e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6469689312969e-05</v>
+        <v>1.998490883892146e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.41935850221949</v>
+        <v>50.33047816302835</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.538696347988065, 61.30002065645091]</t>
+          <t>[34.3679832586933, 66.29297306736339]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0003191457541142917</v>
+        <v>9.406164025449471e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0003191457541142917</v>
+        <v>9.406164025449471e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.037763339023655</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5220264069028095, 1.5535002711445012]</t>
+          <t>[1.1383949355350405, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001978673728328939</v>
+        <v>2.550664124356672e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001978673728328939</v>
+        <v>2.550664124356672e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>57.73972927906161</v>
+        <v>53.58179686729482</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.60717676366141, 68.8722817944618]</t>
+          <t>[43.5174673096485, 63.64612642494114]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.301181384860683e-13</v>
+        <v>5.595524044110789e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.301181384860683e-13</v>
+        <v>5.595524044110789e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>21.1797597597602</v>
+        <v>19.4621621621626</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.09733733733774</v>
+        <v>17.92162162162202</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.26218218218266</v>
+        <v>21.00270270270317</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.554633876192483e-07</v>
+        <v>8.761534942003379e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>5.554633876192483e-07</v>
+        <v>8.761534942003379e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.64246272076683</v>
+        <v>57.17957833518822</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.370373870296508, 68.91455157123715]</t>
+          <t>[36.56282526205855, 77.79633140831788]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.60176490104913e-05</v>
+        <v>1.279885226024291e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.60176490104913e-05</v>
+        <v>1.279885226024291e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.748447499053424</v>
+        <v>0.874236994692656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.34592111300788453, 1.1509738850989635]</t>
+          <t>[0.5220264069028087, 1.2264475824825034]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0005106187349821489</v>
+        <v>9.220802943854522e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0005106187349821489</v>
+        <v>9.220802943854522e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>54.01426003601598</v>
+        <v>62.81374971030368</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.26609382030155, 64.76242625173042]</t>
+          <t>[52.203961424053105, 73.42353799655424]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.554934124849751e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>3.554934124849751e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>22.34794794794841</v>
+        <v>22.08108108108157</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.72264264264307</v>
+        <v>20.6432432432437</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.97325325325375</v>
+        <v>23.51891891891944</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.912057046027371e-08</v>
+        <v>4.15351505522743e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.912057046027371e-08</v>
+        <v>4.15351505522743e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.25107858507421</v>
+        <v>55.49372652178631</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[32.89766583970413, 65.60449133044429]</t>
+          <t>[33.14155983536941, 77.84589320820322]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.49320043277379e-07</v>
+        <v>9.186407742722835e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>2.49320043277379e-07</v>
+        <v>9.186407742722835e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.4465527095192705</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.044026323473730145, 0.6855527512338089]</t>
+          <t>[0.031447373909808896, 0.8616580451287321]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08332996393067682</v>
+        <v>0.03559231022137288</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08332996393067682</v>
+        <v>0.03559231022137288</v>
       </c>
       <c r="T5" t="n">
-        <v>55.12351260380513</v>
+        <v>59.41841033655269</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.864532043176496, 64.38249316443377]</t>
+          <t>[47.535792075899025, 71.30102859720635]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.158895450245836e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.158895450245836e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>24.07483483483533</v>
+        <v>23.82702702702755</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.60190190190237</v>
+        <v>22.13243243243292</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.5477677677683</v>
+        <v>25.52162162162218</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.926720643614544e-09</v>
+        <v>7.247591925829688e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.926720643614544e-09</v>
+        <v>7.247591925829688e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.58175429540787</v>
+        <v>48.85700121998463</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.03783567156468, 75.12567291925106]</t>
+          <t>[29.108657061624157, 68.6053453783451]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.49720566237022e-09</v>
+        <v>9.739475321568491e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>6.49720566237022e-09</v>
+        <v>9.739475321568491e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05660527303765406</v>
+        <v>-0.03773684869176908</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.25786846606042335, 0.37107901213573147]</t>
+          <t>[-0.5031579825569237, 0.4276842851733855]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.7186467968442951</v>
+        <v>0.8710089761091471</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7186467968442951</v>
+        <v>0.8710089761091471</v>
       </c>
       <c r="T6" t="n">
-        <v>53.17165459019312</v>
+        <v>55.04500325532796</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.92297534828192, 63.42033383210432]</t>
+          <t>[42.92476887967992, 67.165237630976]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.287858708565182e-13</v>
+        <v>7.860823103555958e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.287858708565182e-13</v>
+        <v>7.860823103555958e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>25.14144144144196</v>
+        <v>0.154054054054054</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.87167167167217</v>
+        <v>-1.745945945945988</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.41121121121176</v>
+        <v>2.054054054054096</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.029661625961964e-07</v>
+        <v>5.347589253634766e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>1.029661625961964e-07</v>
+        <v>5.347589253634766e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>57.18603574441786</v>
+        <v>48.04845813225111</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.37078608417691, 78.0012854046588]</t>
+          <t>[29.020637376039787, 67.07627888846244]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.530162107910016e-06</v>
+        <v>6.905928701783637e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.530162107910016e-06</v>
+        <v>6.905928701783637e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3773684869176925</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, 0.02515789912784694]</t>
+          <t>[-0.69184222601577, 0.13836844520315328]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06545332432287432</v>
+        <v>0.186091762365145</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06545332432287432</v>
+        <v>0.186091762365145</v>
       </c>
       <c r="T7" t="n">
-        <v>60.7816870303252</v>
+        <v>57.33425777683769</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.01323117999188, 72.55014288065853]</t>
+          <t>[46.73868278329847, 67.9298327703769]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.48991929904696e-13</v>
+        <v>3.286260152890463e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48991929904696e-13</v>
+        <v>3.286260152890463e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>1.523723723723755</v>
+        <v>1.129729729729757</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1015815815815857</v>
+        <v>-0.5648648648648733</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.149029029029096</v>
+        <v>2.824324324324387</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.686988083227092e-06</v>
+        <v>2.36101767248087e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>1.686988083227092e-06</v>
+        <v>2.36101767248087e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.13366381181657</v>
+        <v>48.75220894490471</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[23.248006637670265, 63.01932098596287]</t>
+          <t>[28.46041446294518, 69.04400342686424]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.267843498759419e-05</v>
+        <v>1.569288236380473e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>7.267843498759419e-05</v>
+        <v>1.569288236380473e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-1.056631763369539</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, -0.3647895373537695]</t>
+          <t>[-1.4968949981068471, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0006158372908429133</v>
+        <v>1.59622787905267e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006158372908429133</v>
+        <v>1.59622787905267e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>42.73246868873241</v>
+        <v>54.49837369069756</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[32.3464544816149, 53.11848289584992]</t>
+          <t>[43.722543991425866, 65.27420338996924]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.322948417481484e-10</v>
+        <v>2.90656387846866e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.322948417481484e-10</v>
+        <v>2.90656387846866e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>3.265985985986056</v>
+        <v>4.261381381381469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.479899899899931</v>
+        <v>2.485805805805859</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.052072072072181</v>
+        <v>6.036956956957078</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.017038342432386e-09</v>
+        <v>2.036552038120476e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>1.017038342432386e-09</v>
+        <v>2.036552038120476e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>59.30855733594404</v>
+        <v>60.32043473507436</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[41.10025647031915, 77.51685820156892]</t>
+          <t>[42.97784651221427, 77.66302295793446]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.584112445193966e-08</v>
+        <v>1.000408200724223e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>4.584112445193966e-08</v>
+        <v>1.000408200724223e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.358526552903694</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6604213424378482, -0.9560001668581553]</t>
+          <t>[-1.6604213424378482, -1.0566317633695395]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.983203157251978e-09</v>
+        <v>1.031064122969383e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.983203157251978e-09</v>
+        <v>1.031064122969383e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>56.28042450220811</v>
+        <v>58.80160108626582</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.698512454139184, 66.86233655027704]</t>
+          <t>[48.67594387344769, 68.92725829908395]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.773159728050814e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>5.773159728050814e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>5.30722722722734</v>
+        <v>5.478918918919032</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.878358358358442</v>
+        <v>4.261381381381469</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.736096096096238</v>
+        <v>6.696456456456595</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.200755965300118e-09</v>
+        <v>1.38569200558436e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>4.200755965300118e-09</v>
+        <v>1.38569200558436e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>64.69030986093142</v>
+        <v>64.02423381312319</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[46.27458515324497, 83.10603456861787]</t>
+          <t>[46.29597207099063, 81.75249555525575]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.886195696471532e-09</v>
+        <v>4.007865372912534e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>7.886195696471532e-09</v>
+        <v>4.007865372912534e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.635263443310002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9748950815359265, -1.2704739059562318]</t>
+          <t>[-1.9623161319720026, -1.3082107546480017]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.133227176656874e-12</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>5.133227176656874e-12</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>74.04764363696621</v>
+        <v>60.62353036305471</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[61.92302939603678, 86.17225787789565]</t>
+          <t>[49.15314614150266, 72.09391458460675]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>7.083222897108499e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>7.083222897108499e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>6.583003003003142</v>
+        <v>6.59499499499513</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.15413413413424</v>
+        <v>5.275995995996103</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.011871871872044</v>
+        <v>7.913993993994156</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002893302362854122</v>
+        <v>8.805704387881974e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002893302362854122</v>
+        <v>8.805704387881974e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>39.54095147450269</v>
+        <v>51.78501820973114</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[16.355001109789242, 62.72690183921614]</t>
+          <t>[34.559401436813246, 69.01063498264904]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001284811832241939</v>
+        <v>2.587512866192299e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001284811832241939</v>
+        <v>2.587512866192299e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.798789787641002</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.4654741145289267, -1.132105460753078]</t>
+          <t>[-2.2893688206340035, -1.5346318467986175]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.140280573659226e-06</v>
+        <v>2.744471316873387e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>2.140280573659226e-06</v>
+        <v>2.744471316873387e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>53.06103447520897</v>
+        <v>48.44580179226092</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[40.10469916435986, 66.01736978605808]</t>
+          <t>[38.6003585603783, 58.29124502414355]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.503084323672965e-10</v>
+        <v>6.883382752675971e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.503084323672965e-10</v>
+        <v>6.883382752675971e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>7.297437437437594</v>
+        <v>7.711071071071231</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.59279279279289</v>
+        <v>6.189149149149277</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.0020820820823</v>
+        <v>9.232992992993184</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.338682191296073e-08</v>
+        <v>0.0004027249656919363</v>
       </c>
       <c r="I12" t="n">
-        <v>4.338682191296073e-08</v>
+        <v>0.0004027249656919363</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.79532184428711</v>
+        <v>31.37220514965041</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[33.223361861880676, 74.36728182669354]</t>
+          <t>[11.341265292841285, 51.40314500645954]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.765006227007817e-06</v>
+        <v>0.002864051319822369</v>
       </c>
       <c r="O12" t="n">
-        <v>3.765006227007817e-06</v>
+        <v>0.002864051319822369</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.364842518017542</v>
+        <v>-2.47805306409285</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.742211004935235, -1.987474031099849]</t>
+          <t>[-3.0818426431611585, -1.874263485024541]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.417055361940811e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.417055361940811e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>64.1715450724639</v>
+        <v>55.85713689807336</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[53.56496726203143, 74.77812288289637]</t>
+          <t>[45.708317404350595, 66.00595639179613]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>9.59383383383404</v>
+        <v>9.99395395395416</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.062902902903076</v>
+        <v>7.558878878879034</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.124764764765</v>
+        <v>12.42902902902929</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.978928297954099e-12</v>
+        <v>1.2117670566969e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>3.978928297954099e-12</v>
+        <v>1.2117670566969e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>66.98311993614496</v>
+        <v>55.33430795762226</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[50.28489231118212, 83.6813475611078]</t>
+          <t>[33.16499371831253, 77.50362219693199]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.642912555472776e-10</v>
+        <v>8.402810054874976e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>2.642912555472776e-10</v>
+        <v>8.402810054874976e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.779947853627004</v>
+        <v>-2.452895164965003</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.0566847440333125, -2.503210963220696]</t>
+          <t>[-2.842842601446619, -2.0629477284833877]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T13" t="n">
-        <v>58.93211062015256</v>
+        <v>63.51101203109211</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.65943072014146, 68.20479052016366]</t>
+          <t>[52.13773692641793, 74.8842871357663]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>11.2778578578581</v>
+        <v>9.892492492492694</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.15517517517539</v>
+        <v>8.319839839840011</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.40054054054081</v>
+        <v>11.46514514514538</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.494009693736587e-09</v>
+        <v>7.013242320219604e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>1.494009693736587e-09</v>
+        <v>7.013242320219604e-09</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>61.01472230287891</v>
+        <v>62.93795204590399</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[43.288461592940564, 78.74098301281725]</t>
+          <t>[44.877569728974734, 80.99833436283325]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.282549222381135e-08</v>
+        <v>9.554013358226143e-09</v>
       </c>
       <c r="O14" t="n">
-        <v>1.282549222381135e-08</v>
+        <v>9.554013358226143e-09</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.943474197958005</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.257947937056083, -2.6290004588599265]</t>
+          <t>[-3.434053230951005, -2.80510575275485]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>54.08844794733661</v>
+        <v>60.59584956752846</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.73042204410327, 64.44647385056996]</t>
+          <t>[49.19238735585829, 71.99931177919864]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.045830089196897e-13</v>
+        <v>5.950795411990839e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.045830089196897e-13</v>
+        <v>5.950795411990839e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>11.94126126126152</v>
+        <v>12.58122122122148</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.66548548548571</v>
+        <v>11.31295295295319</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.21703703703733</v>
+        <v>13.84948948948977</v>
       </c>
     </row>
   </sheetData>
